--- a/doc_classification.xlsx
+++ b/doc_classification.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="297">
   <si>
     <t>CDC</t>
   </si>
@@ -834,7 +834,7 @@
     <t>3.3.2</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3.3.3</t>
+    <t>3.3.3</t>
   </si>
   <si>
     <t>3.4.3</t>
@@ -3477,11 +3477,6 @@
         <v>207</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
